--- a/2_output/outputFile.xlsx
+++ b/2_output/outputFile.xlsx
@@ -41,7 +41,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -54,12 +54,12 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -68,7 +68,7 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -475,7 +475,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>C:\Users\DT0083\Desktop\Python Learning\ezVideoThumbnails\1_input\hajimeyasusa_SBI_16x9_210607_res_2.mp4</t>
+          <t>C:\Users\DT0083\Desktop\Python-Learning\ezVideoThumbnails\1_input\hajimeyasusa_SBI_16x9_210607_res_2.mp4</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -488,7 +488,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>C:\Users\DT0083\Desktop\Python Learning\ezVideoThumbnails\2_output\hajimeyasusa_SBI_16x9_210607_res_2.jpg</t>
+          <t>C:\Users\DT0083\Desktop\Python-Learning\ezVideoThumbnails\2_output\hajimeyasusa_SBI_16x9_210607_res_2.jpg</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">

--- a/2_output/outputFile.xlsx
+++ b/2_output/outputFile.xlsx
@@ -41,7 +41,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -54,12 +54,12 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -68,7 +68,7 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,27 +475,70 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>C:\Users\DT0083\Desktop\Python-Learning\ezVideoThumbnails\1_input\hajimeyasusa_SBI_16x9_210607_res_2.mp4</t>
+          <t>C:\Users\DT0083\Desktop\Python Learning\ezVideoThumbnails\1_input\SBM_MV_1080×1080_220117_iP13pro_gp_nts_YDN.mp4</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>hajimeyasusa_SBI_16x9_210607_res_2.mp4</t>
+          <t>SBM_MV_1080×1080_220117_iP13pro_gp_nts_YDN.mp4</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>C:\Users\DT0083\Desktop\Python-Learning\ezVideoThumbnails\2_output\hajimeyasusa_SBI_16x9_210607_res_2.jpg</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>hajimeyasusa_SBI_16x9_210607_res_2.jpg</t>
-        </is>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\DT0083\Desktop\Python Learning\ezVideoThumbnails\1_input\SBM_MV_1080×1080_220117_iP13_bl_olaf_YDN.mp4</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>SBM_MV_1080×1080_220117_iP13_bl_olaf_YDN.mp4</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\DT0083\Desktop\Python Learning\ezVideoThumbnails\1_input\SBM_MV_1280×720_220117_iP13pro_sibl_nts_YDN.mp4</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>SBM_MV_1280×720_220117_iP13pro_sibl_nts_YDN.mp4</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\DT0083\Desktop\Python Learning\ezVideoThumbnails\1_input\SBM_MV_1280×720_220117_iP13_mdn_olaf_YDN.mp4</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>SBM_MV_1280×720_220117_iP13_mdn_olaf_YDN.mp4</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/2_output/outputFile.xlsx
+++ b/2_output/outputFile.xlsx
@@ -41,7 +41,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -54,12 +54,12 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -68,7 +68,7 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -475,7 +475,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>C:\Users\DT0083\Desktop\Python Learning\ezVideoThumbnails\1_input\SBM_MV_1080×1080_220117_iP13pro_gp_nts_YDN.mp4</t>
+          <t>C:\Users\DT0083\Desktop\Python-Learning\ezVideoThumbnails\1_input\SBM_MV_1080×1080_220117_iP13pro_gp_nts_YDN.mp4</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -486,13 +486,21 @@
       <c r="C2" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="inlineStr"/>
-      <c r="E2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\DT0083\Desktop\Python-Learning\ezVideoThumbnails\2_output\SBM_MV_1080×1080_220117_iP13pro_gp_nts_YDN.jpg</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>SBM_MV_1080×1080_220117_iP13pro_gp_nts_YDN.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>C:\Users\DT0083\Desktop\Python Learning\ezVideoThumbnails\1_input\SBM_MV_1080×1080_220117_iP13_bl_olaf_YDN.mp4</t>
+          <t>C:\Users\DT0083\Desktop\Python-Learning\ezVideoThumbnails\1_input\SBM_MV_1080×1080_220117_iP13_bl_olaf_YDN.mp4</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -503,13 +511,21 @@
       <c r="C3" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\DT0083\Desktop\Python-Learning\ezVideoThumbnails\2_output\SBM_MV_1080×1080_220117_iP13_bl_olaf_YDN.jpg</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>SBM_MV_1080×1080_220117_iP13_bl_olaf_YDN.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>C:\Users\DT0083\Desktop\Python Learning\ezVideoThumbnails\1_input\SBM_MV_1280×720_220117_iP13pro_sibl_nts_YDN.mp4</t>
+          <t>C:\Users\DT0083\Desktop\Python-Learning\ezVideoThumbnails\1_input\SBM_MV_1280×720_220117_iP13pro_sibl_nts_YDN.mp4</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -520,13 +536,21 @@
       <c r="C4" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\DT0083\Desktop\Python-Learning\ezVideoThumbnails\2_output\SBM_MV_1280×720_220117_iP13pro_sibl_nts_YDN.jpg</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>SBM_MV_1280×720_220117_iP13pro_sibl_nts_YDN.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>C:\Users\DT0083\Desktop\Python Learning\ezVideoThumbnails\1_input\SBM_MV_1280×720_220117_iP13_mdn_olaf_YDN.mp4</t>
+          <t>C:\Users\DT0083\Desktop\Python-Learning\ezVideoThumbnails\1_input\SBM_MV_1280×720_220117_iP13_mdn_olaf_YDN.mp4</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -537,8 +561,16 @@
       <c r="C5" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\DT0083\Desktop\Python-Learning\ezVideoThumbnails\2_output\SBM_MV_1280×720_220117_iP13_mdn_olaf_YDN.jpg</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>SBM_MV_1280×720_220117_iP13_mdn_olaf_YDN.jpg</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/2_output/outputFile.xlsx
+++ b/2_output/outputFile.xlsx
@@ -41,7 +41,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -54,12 +54,12 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -68,7 +68,7 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,15 +458,20 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
+          <t>output_name</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
           <t>time</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>output_file_path</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>output_file_name</t>
         </is>
@@ -475,100 +480,118 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>C:\Users\DT0083\Desktop\Python-Learning\ezVideoThumbnails\1_input\SBM_MV_1080×1080_220117_iP13pro_gp_nts_YDN.mp4</t>
+          <t>C:\Users\DT0083\Desktop\Python Learning\ezVideoThumbnails\1_input\SBM_MV_1080×1080_003_iP13p_sibl_ch_tsnr_8sec_YDN.mp4</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>SBM_MV_1080×1080_220117_iP13pro_gp_nts_YDN.mp4</t>
+          <t>SBM_MV_1080×1080_003_iP13p_sibl_ch_tsnr_8sec_YDN.mp4</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>C:\Users\DT0083\Desktop\Python-Learning\ezVideoThumbnails\2_output\SBM_MV_1080×1080_220117_iP13pro_gp_nts_YDN.jpg</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>SBM_MV_1080×1080_220117_iP13pro_gp_nts_YDN.jpg</t>
+          <t>C:\Users\DT0083\Desktop\Python Learning\ezVideoThumbnails\2_output\1.jpg</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>1.jpg</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>C:\Users\DT0083\Desktop\Python-Learning\ezVideoThumbnails\1_input\SBM_MV_1080×1080_220117_iP13_bl_olaf_YDN.mp4</t>
+          <t>C:\Users\DT0083\Desktop\Python Learning\ezVideoThumbnails\1_input\SBM_MV_1280x720_003_iP13p_sibl_ch_tsnr_8sec_YDN.mp4</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>SBM_MV_1080×1080_220117_iP13_bl_olaf_YDN.mp4</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>C:\Users\DT0083\Desktop\Python-Learning\ezVideoThumbnails\2_output\SBM_MV_1080×1080_220117_iP13_bl_olaf_YDN.jpg</t>
-        </is>
+          <t>SBM_MV_1280x720_003_iP13p_sibl_ch_tsnr_8sec_YDN.mp4</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>8_1</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>SBM_MV_1080×1080_220117_iP13_bl_olaf_YDN.jpg</t>
+          <t>C:\Users\DT0083\Desktop\Python Learning\ezVideoThumbnails\2_output\8_1.jpg</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>8_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>C:\Users\DT0083\Desktop\Python-Learning\ezVideoThumbnails\1_input\SBM_MV_1280×720_220117_iP13pro_sibl_nts_YDN.mp4</t>
+          <t>C:\Users\DT0083\Desktop\Python Learning\ezVideoThumbnails\1_input\ゴシップ_minogashi_15s.mp4</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>SBM_MV_1280×720_220117_iP13pro_sibl_nts_YDN.mp4</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>C:\Users\DT0083\Desktop\Python-Learning\ezVideoThumbnails\2_output\SBM_MV_1280×720_220117_iP13pro_sibl_nts_YDN.jpg</t>
-        </is>
+          <t>ゴシップ_minogashi_15s.mp4</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9_1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>SBM_MV_1280×720_220117_iP13pro_sibl_nts_YDN.jpg</t>
+          <t>C:\Users\DT0083\Desktop\Python Learning\ezVideoThumbnails\2_output\9_1.jpg</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>C:\Users\DT0083\Desktop\Python-Learning\ezVideoThumbnails\1_input\SBM_MV_1280×720_220117_iP13_mdn_olaf_YDN.mp4</t>
+          <t>C:\Users\DT0083\Desktop\Python Learning\ezVideoThumbnails\1_input\ゴシップ_spot_30s.mp4</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>SBM_MV_1280×720_220117_iP13_mdn_olaf_YDN.mp4</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>C:\Users\DT0083\Desktop\Python-Learning\ezVideoThumbnails\2_output\SBM_MV_1280×720_220117_iP13_mdn_olaf_YDN.jpg</t>
-        </is>
+          <t>ゴシップ_spot_30s.mp4</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10_1</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>SBM_MV_1280×720_220117_iP13_mdn_olaf_YDN.jpg</t>
+          <t>C:\Users\DT0083\Desktop\Python Learning\ezVideoThumbnails\2_output\10_1.jpg</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10_1.jpg</t>
         </is>
       </c>
     </row>
